--- a/medicine/Œil et vue/Canal_de_Cloquet/Canal_de_Cloquet.xlsx
+++ b/medicine/Œil et vue/Canal_de_Cloquet/Canal_de_Cloquet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le canal de Cloquet, canal hyaloïde ou canal hyaloïdien dans la nomenclature anatomique, est un petit canal transparent, résidu embryonnaire de l’œil, qui part du point aveugle, traverse le corps vitré pour rejoindre la face postérieure du cristallin au niveau de l'espace de Berger.
 Son nom est dû au médecin français Jules Germain Cloquet qui l'a décrit (l'Allemand Benedict Stilling fit simultanément la même découverte).
@@ -512,7 +524,9 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lors de l'organogenèse, les deux vésicules optiques (en) se forment vers le 14e jour de gestation chez l'homme à partir d'évaginations latérales du tube neural antérieur lui-même formé à partir de l'ectoderme neural.
 Tout en restant rattachée au télencéphale par le pédoncule optique (en), chaque vésicule optique se projette vers la surface ectodermique où elle induit la formation de placode cristalline. Il se produit alors une invagination des placodes cristallines pour former le cristallin.
